--- a/Data/Habitat_Limiting_Factor_Rating_Criteria.xlsx
+++ b/Data/Habitat_Limiting_Factor_Rating_Criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E53FD1-DA4A-4719-890E-2B4723E4FBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FFE386-F5E4-4888-9E2A-55618D9F99AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="912" windowWidth="15900" windowHeight="11448" xr2:uid="{39DD5E77-4161-45F8-A228-94BEA2686D53}"/>
+    <workbookView xWindow="5244" yWindow="3084" windowWidth="17280" windowHeight="10560" xr2:uid="{39DD5E77-4161-45F8-A228-94BEA2686D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3753,16 +3753,16 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.77734375" customWidth="1"/>
     <col min="2" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="94.5546875" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="8" width="26.44140625" customWidth="1"/>
     <col min="9" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="35"/>

--- a/Data/Habitat_Limiting_Factor_Rating_Criteria.xlsx
+++ b/Data/Habitat_Limiting_Factor_Rating_Criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FFE386-F5E4-4888-9E2A-55618D9F99AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A4DE8-C220-4F17-8908-51AAF6FD5E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5244" yWindow="3084" windowWidth="17280" windowHeight="10560" xr2:uid="{39DD5E77-4161-45F8-A228-94BEA2686D53}"/>
+    <workbookView xWindow="420" yWindow="492" windowWidth="22188" windowHeight="11508" xr2:uid="{39DD5E77-4161-45F8-A228-94BEA2686D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="200">
   <si>
     <t>Habitat Limiting Factor Scoring Rules</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>inverse of Coarse Substrate (% Gravel Cobble)</t>
+  </si>
+  <si>
+    <t>UCSRB_OffChannel_Floodplain,UCSRB_OffChannel_SideChannels,UCSRB_ChannelStability,UCSRB_BankStability</t>
+  </si>
+  <si>
+    <t>Based on Floodplain analysis by Aspect Consulting and UCSRB (Greer)</t>
   </si>
 </sst>
 </file>
@@ -3750,19 +3756,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD6E8C-F414-4D9F-82CB-33D09B6D4DCD}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.77734375" customWidth="1"/>
     <col min="2" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="8" width="26.44140625" customWidth="1"/>
     <col min="9" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="35"/>
@@ -3817,17 +3823,19 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
       <c r="F2" t="s">
@@ -3837,42 +3845,45 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="42">
+        <v>180</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="41" t="s">
+      <c r="M2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="41" t="s">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
@@ -3882,42 +3893,45 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="42">
+        <v>180</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3</f>
+        <v>1.4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="M3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
@@ -3927,72 +3941,74 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="42">
+        <v>180</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J4" s="2">
+        <f>I4</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L4" s="2">
         <v>5</v>
       </c>
-      <c r="M4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="41" t="s">
+      <c r="M4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f>I5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="34">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
         <v>32</v>
@@ -4000,46 +4016,46 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>20</v>
+      </c>
+      <c r="L6" s="34">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
         <v>32</v>
@@ -4047,46 +4063,47 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <f>I7</f>
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L7" s="34">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
         <v>32</v>
@@ -4094,157 +4111,160 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>100000</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2">
+        <v>180</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <f>I8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>17</v>
+      </c>
+      <c r="L8" s="34">
         <v>1</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>32</v>
+      <c r="M8" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>52</v>
+      <c r="O8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>100000</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="I9" s="2">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <f>I9</f>
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
+        <v>70</v>
+      </c>
+      <c r="L9" s="34">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>100000</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="I10" s="2">
+        <v>70</v>
+      </c>
+      <c r="J10" s="2">
+        <f>I10</f>
+        <v>70</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L10" s="34">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -4256,42 +4276,43 @@
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>32</v>
+      <c r="M11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>63</v>
+      <c r="O11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -4306,23 +4327,23 @@
         <v>180</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="2">
         <f>I12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
         <v>32</v>
@@ -4330,16 +4351,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -4354,23 +4375,23 @@
         <v>180</v>
       </c>
       <c r="I13" s="2">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
         <f>I13</f>
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2">
-        <v>2.2000000000000002</v>
+        <v>101</v>
       </c>
       <c r="L13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
         <v>32</v>
@@ -4378,16 +4399,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -4402,23 +4423,23 @@
         <v>180</v>
       </c>
       <c r="I14" s="2">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <f>I14</f>
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
         <v>32</v>
@@ -4426,47 +4447,46 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
       </c>
       <c r="H15" t="s">
         <v>180</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="2">
-        <f>I15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="34">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>129</v>
+        <v>20</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
         <v>32</v>
@@ -4474,46 +4494,47 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
       </c>
       <c r="H16" t="s">
         <v>180</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2">
-        <v>0.1</v>
+        <f>I16</f>
+        <v>20</v>
       </c>
       <c r="K16" s="2">
+        <v>101</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L16" s="34">
-        <v>3</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="O16" t="s">
         <v>32</v>
@@ -4521,47 +4542,47 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
       </c>
       <c r="H17" t="s">
         <v>180</v>
       </c>
       <c r="I17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <f>I17</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>100000</v>
-      </c>
-      <c r="L17" s="34">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>131</v>
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>32</v>
@@ -4569,47 +4590,47 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>100000</v>
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>180</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J18" s="2">
         <f>I18</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="2">
-        <v>17</v>
-      </c>
-      <c r="L18" s="34">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
         <v>32</v>
@@ -4617,206 +4638,187 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>100000</v>
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
       </c>
       <c r="H19" t="s">
         <v>180</v>
       </c>
       <c r="I19" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J19" s="2">
         <f>I19</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K19" s="2">
-        <v>70</v>
-      </c>
-      <c r="L19" s="34">
+        <v>100000</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
+        <f>I20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="37">
+        <v>5</v>
+      </c>
+      <c r="L20" s="37">
+        <v>1</v>
+      </c>
+      <c r="M20" s="37" t="str">
+        <f>"&lt;"&amp;I21&amp;" pools per mile"</f>
+        <v>&lt;5 pools per mile</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="37">
+        <v>5</v>
+      </c>
+      <c r="J21" s="37">
+        <f>I21</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="37">
+        <v>20</v>
+      </c>
+      <c r="L21" s="37">
         <v>3</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="2" t="s">
+      <c r="M21" s="37" t="str">
+        <f>I21&amp;"-"&amp;I22&amp;" pools per mile"</f>
+        <v>5-20 pools per mile</v>
+      </c>
+      <c r="N21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20">
+      <c r="O21" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="37">
+        <v>20</v>
+      </c>
+      <c r="J22" s="37">
+        <f>I22</f>
+        <v>20</v>
+      </c>
+      <c r="K22" s="37">
+        <v>10000</v>
+      </c>
+      <c r="L22" s="37">
         <v>5</v>
       </c>
-      <c r="G20">
-        <v>100000</v>
-      </c>
-      <c r="H20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="2">
-        <v>70</v>
-      </c>
-      <c r="J20" s="2">
-        <f>I20</f>
-        <v>70</v>
-      </c>
-      <c r="K20" s="2">
-        <v>100000</v>
-      </c>
-      <c r="L20" s="34">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="M22" s="37" t="str">
+        <f>"&gt;"&amp;I22&amp;" pools per mile"</f>
+        <v>&gt;20 pools per mile</v>
+      </c>
+      <c r="N22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="O20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="34">
-        <v>5</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="34">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="O22" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
@@ -4828,25 +4830,26 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f>I23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="34">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" t="s">
-        <v>32</v>
       </c>
       <c r="O23" t="s">
         <v>32</v>
@@ -4854,16 +4857,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
         <v>32</v>
@@ -4875,25 +4878,26 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" t="s">
-        <v>32</v>
+        <v>180</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <f>I24</f>
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="O24" t="s">
         <v>32</v>
@@ -4901,16 +4905,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -4922,51 +4926,53 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="35">
+        <v>180</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2">
+        <f>I25</f>
+        <v>20</v>
+      </c>
+      <c r="K25" s="2">
+        <v>101</v>
+      </c>
+      <c r="L25" s="2">
         <v>5</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>5*0.3048</f>
+        <v>1.524</v>
       </c>
       <c r="H26" t="s">
         <v>180</v>
@@ -4979,16 +4985,16 @@
         <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>38</v>
+      <c r="M26" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="O26" t="s">
         <v>32</v>
@@ -4996,47 +5002,48 @@
     </row>
     <row r="27" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>5*0.3048</f>
+        <v>1.524</v>
       </c>
       <c r="H27" t="s">
         <v>180</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="J27" s="2">
         <f>I27</f>
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="K27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L27" s="2">
         <v>5</v>
       </c>
-      <c r="L27" s="2">
-        <v>3</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>41</v>
+      <c r="M27" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O27" t="s">
         <v>32</v>
@@ -5044,47 +5051,48 @@
     </row>
     <row r="28" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>5*0.3048</f>
+        <v>1.524</v>
       </c>
       <c r="H28" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="2">
-        <v>5</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="2" t="str">
         <f>I28</f>
-        <v>5</v>
-      </c>
-      <c r="K28" s="2">
-        <v>101</v>
-      </c>
-      <c r="L28" s="2">
-        <v>5</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>43</v>
+        <v>NA</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O28" t="s">
         <v>32</v>
@@ -5092,25 +5100,27 @@
     </row>
     <row r="29" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
         <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <f>5*0.3048</f>
+        <v>1.524</v>
+      </c>
+      <c r="G29">
+        <f>10*0.3048</f>
+        <v>3.048</v>
       </c>
       <c r="H29" t="s">
         <v>180</v>
@@ -5123,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>23</v>
+      <c r="M29" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="O29" t="s">
         <v>32</v>
@@ -5140,46 +5150,49 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
+        <v>93</v>
+      </c>
+      <c r="F30">
+        <f>5*0.3048</f>
+        <v>1.524</v>
+      </c>
+      <c r="G30">
+        <f>10*0.3048</f>
+        <v>3.048</v>
       </c>
       <c r="H30" t="s">
         <v>180</v>
       </c>
       <c r="I30" s="2">
-        <v>0.1</v>
+        <v>95</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <f>I30</f>
+        <v>95</v>
       </c>
       <c r="K30" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L30" s="2">
+        <v>5</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L30" s="2">
-        <v>3</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="O30" t="s">
         <v>32</v>
@@ -5187,47 +5200,47 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <f>5*0.3048</f>
+        <v>1.524</v>
+      </c>
+      <c r="G31">
+        <f>10*0.3048</f>
+        <v>3.048</v>
       </c>
       <c r="H31" t="s">
         <v>180</v>
       </c>
-      <c r="I31" s="2">
-        <v>20</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" ref="J31:J70" si="0">I31</f>
-        <v>20</v>
-      </c>
-      <c r="K31" s="2">
-        <v>101</v>
-      </c>
-      <c r="L31" s="2">
-        <v>5</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>30</v>
+      <c r="I31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f>I31</f>
+        <v>NA</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O31" t="s">
         <v>32</v>
@@ -5235,25 +5248,27 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <f>10*0.3048</f>
+        <v>3.048</v>
+      </c>
+      <c r="G32">
+        <f>15*0.3048</f>
+        <v>4.5720000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>180</v>
@@ -5262,20 +5277,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="0"/>
+        <f>I32</f>
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="O32" t="s">
         <v>32</v>
@@ -5283,47 +5298,49 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
         <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="F33">
+        <f>10*0.3048</f>
+        <v>3.048</v>
+      </c>
+      <c r="G33">
+        <f>15*0.3048</f>
+        <v>4.5720000000000001</v>
       </c>
       <c r="H33" t="s">
         <v>180</v>
       </c>
       <c r="I33" s="2">
-        <v>0.1</v>
+        <v>70</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>I33</f>
+        <v>70</v>
       </c>
       <c r="K33" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L33" s="2">
         <v>5</v>
       </c>
-      <c r="L33" s="2">
-        <v>3</v>
-      </c>
       <c r="M33" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O33" t="s">
         <v>32</v>
@@ -5331,178 +5348,207 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
         <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="F34">
+        <f>10*0.3048</f>
+        <v>3.048</v>
+      </c>
+      <c r="G34">
+        <f>15*0.3048</f>
+        <v>4.5720000000000001</v>
       </c>
       <c r="H34" t="s">
         <v>180</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f>I34</f>
+        <v>NA</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35">
+        <f>15*0.3048</f>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="G35">
+        <f>20*0.3048</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="H35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f>I35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>55</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36">
+        <f>15*0.3048</f>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="G36">
+        <f>20*0.3048</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="H36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" s="2">
+        <v>55</v>
+      </c>
+      <c r="J36" s="2">
+        <f>I36</f>
+        <v>55</v>
+      </c>
+      <c r="K36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L36" s="2">
         <v>5</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K34" s="2">
-        <v>100000</v>
-      </c>
-      <c r="L34" s="2">
-        <v>5</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" s="2" t="s">
+      <c r="M36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="36" t="s">
+      <c r="O36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36" t="s">
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37">
+        <f>15*0.3048</f>
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="G37">
+        <f>20*0.3048</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="H37" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="37">
-        <v>0</v>
-      </c>
-      <c r="J35" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="37">
-        <v>5</v>
-      </c>
-      <c r="L35" s="37">
-        <v>1</v>
-      </c>
-      <c r="M35" s="37" t="str">
-        <f>"&lt;"&amp;I36&amp;" pools per mile"</f>
-        <v>&lt;5 pools per mile</v>
-      </c>
-      <c r="N35" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" s="37">
-        <v>5</v>
-      </c>
-      <c r="J36" s="37">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K36" s="37">
-        <v>20</v>
-      </c>
-      <c r="L36" s="37">
-        <v>3</v>
-      </c>
-      <c r="M36" s="37" t="str">
-        <f>I36&amp;"-"&amp;I37&amp;" pools per mile"</f>
-        <v>5-20 pools per mile</v>
-      </c>
-      <c r="N36" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="37">
-        <v>20</v>
-      </c>
-      <c r="J37" s="37">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K37" s="37">
-        <v>10000</v>
-      </c>
-      <c r="L37" s="37">
-        <v>5</v>
-      </c>
-      <c r="M37" s="37" t="str">
-        <f>"&gt;"&amp;I37&amp;" pools per mile"</f>
-        <v>&gt;20 pools per mile</v>
-      </c>
-      <c r="N37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="36" t="s">
+      <c r="I37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f>I37</f>
+        <v>NA</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>140</v>
@@ -5511,16 +5557,18 @@
         <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="F38">
+        <f>20*0.3048</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="G38">
+        <f>25*0.3048</f>
+        <v>7.62</v>
       </c>
       <c r="H38" t="s">
         <v>180</v>
@@ -5529,20 +5577,20 @@
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="0"/>
+        <f>I38</f>
         <v>0</v>
       </c>
       <c r="K38" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="O38" t="s">
         <v>32</v>
@@ -5550,7 +5598,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>140</v>
@@ -5559,38 +5607,40 @@
         <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="F39">
+        <f>20*0.3048</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="G39">
+        <f>25*0.3048</f>
+        <v>7.62</v>
       </c>
       <c r="H39" t="s">
         <v>180</v>
       </c>
       <c r="I39" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>I39</f>
+        <v>47</v>
       </c>
       <c r="K39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L39" s="2">
+        <v>5</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L39" s="2">
-        <v>3</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="O39" t="s">
         <v>32</v>
@@ -5598,7 +5648,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>140</v>
@@ -5607,38 +5657,40 @@
         <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="F40">
+        <f>20*0.3048</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="G40">
+        <f>25*0.3048</f>
+        <v>7.62</v>
       </c>
       <c r="H40" t="s">
         <v>180</v>
       </c>
-      <c r="I40" s="2">
-        <v>20</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K40" s="2">
-        <v>101</v>
-      </c>
-      <c r="L40" s="2">
-        <v>5</v>
+      <c r="I40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>I40</f>
+        <v>NA</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O40" t="s">
         <v>32</v>
@@ -5658,14 +5710,15 @@
         <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <f>25*0.3048</f>
+        <v>7.62</v>
       </c>
       <c r="G41">
-        <f>5*0.3048</f>
-        <v>1.524</v>
+        <f>50*0.3048</f>
+        <v>15.24</v>
       </c>
       <c r="H41" t="s">
         <v>180</v>
@@ -5674,17 +5727,17 @@
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="0"/>
+        <f>I41</f>
         <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>89</v>
@@ -5707,33 +5760,34 @@
         <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <f>25*0.3048</f>
+        <v>7.62</v>
       </c>
       <c r="G42">
-        <f>5*0.3048</f>
-        <v>1.524</v>
+        <f>50*0.3048</f>
+        <v>15.24</v>
       </c>
       <c r="H42" t="s">
         <v>180</v>
       </c>
       <c r="I42" s="2">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="0"/>
-        <v>184</v>
+        <f>I42</f>
+        <v>25</v>
       </c>
       <c r="K42" s="2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L42" s="2">
         <v>5</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>20</v>
@@ -5756,14 +5810,15 @@
         <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <f>25*0.3048</f>
+        <v>7.62</v>
       </c>
       <c r="G43">
-        <f>5*0.3048</f>
-        <v>1.524</v>
+        <f>50*0.3048</f>
+        <v>15.24</v>
       </c>
       <c r="H43" t="s">
         <v>180</v>
@@ -5772,7 +5827,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>I43</f>
         <v>NA</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -5805,15 +5860,15 @@
         <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F44">
-        <f>5*0.3048</f>
-        <v>1.524</v>
+        <f>50*0.3048</f>
+        <v>15.24</v>
       </c>
       <c r="G44">
-        <f>10*0.3048</f>
-        <v>3.048</v>
+        <f>75*0.3048</f>
+        <v>22.86</v>
       </c>
       <c r="H44" t="s">
         <v>180</v>
@@ -5822,17 +5877,17 @@
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="0"/>
+        <f>I44</f>
         <v>0</v>
       </c>
       <c r="K44" s="2">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>89</v>
@@ -5855,25 +5910,25 @@
         <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F45">
-        <f>5*0.3048</f>
-        <v>1.524</v>
+        <f>50*0.3048</f>
+        <v>15.24</v>
       </c>
       <c r="G45">
-        <f>10*0.3048</f>
-        <v>3.048</v>
+        <f>75*0.3048</f>
+        <v>22.86</v>
       </c>
       <c r="H45" t="s">
         <v>180</v>
       </c>
       <c r="I45" s="2">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <f>I45</f>
+        <v>23</v>
       </c>
       <c r="K45" s="2">
         <v>100000</v>
@@ -5882,7 +5937,7 @@
         <v>5</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>20</v>
@@ -5905,15 +5960,15 @@
         <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F46">
-        <f>5*0.3048</f>
-        <v>1.524</v>
+        <f>50*0.3048</f>
+        <v>15.24</v>
       </c>
       <c r="G46">
-        <f>10*0.3048</f>
-        <v>3.048</v>
+        <f>75*0.3048</f>
+        <v>22.86</v>
       </c>
       <c r="H46" t="s">
         <v>180</v>
@@ -5922,10 +5977,12 @@
         <v>32</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>I46</f>
         <v>NA</v>
       </c>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L46" s="2" t="s">
         <v>32</v>
       </c>
@@ -5953,15 +6010,14 @@
         <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F47">
-        <f>10*0.3048</f>
-        <v>3.048</v>
+        <f>75*0.3048</f>
+        <v>22.86</v>
       </c>
       <c r="G47">
-        <f>15*0.3048</f>
-        <v>4.5720000000000001</v>
+        <v>100000</v>
       </c>
       <c r="H47" t="s">
         <v>180</v>
@@ -5970,17 +6026,17 @@
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="0"/>
+        <f>I47</f>
         <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L47" s="2">
         <v>1</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>89</v>
@@ -6003,25 +6059,24 @@
         <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F48">
-        <f>10*0.3048</f>
-        <v>3.048</v>
+        <f>75*0.3048</f>
+        <v>22.86</v>
       </c>
       <c r="G48">
-        <f>15*0.3048</f>
-        <v>4.5720000000000001</v>
+        <v>100000</v>
       </c>
       <c r="H48" t="s">
         <v>180</v>
       </c>
       <c r="I48" s="2">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>I48</f>
+        <v>18</v>
       </c>
       <c r="K48" s="2">
         <v>100000</v>
@@ -6030,7 +6085,7 @@
         <v>5</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>20</v>
@@ -6053,15 +6108,14 @@
         <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F49">
-        <f>10*0.3048</f>
-        <v>3.048</v>
+        <f>75*0.3048</f>
+        <v>22.86</v>
       </c>
       <c r="G49">
-        <f>15*0.3048</f>
-        <v>4.5720000000000001</v>
+        <v>100000</v>
       </c>
       <c r="H49" t="s">
         <v>180</v>
@@ -6070,7 +6124,7 @@
         <v>32</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>I49</f>
         <v>NA</v>
       </c>
       <c r="K49" s="2" t="s">
@@ -6090,178 +6144,143 @@
       </c>
     </row>
     <row r="50" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50">
-        <f>15*0.3048</f>
-        <v>4.5720000000000001</v>
-      </c>
-      <c r="G50">
-        <f>20*0.3048</f>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="A50" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="37">
         <v>0</v>
       </c>
-      <c r="J50" s="2">
-        <f t="shared" si="0"/>
+      <c r="J50" s="37">
+        <f>I50</f>
         <v>0</v>
       </c>
-      <c r="K50" s="2">
-        <v>55</v>
-      </c>
-      <c r="L50" s="2">
+      <c r="K50" s="37">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="L50" s="37">
         <v>1</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="M50" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="N50" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51">
-        <f>15*0.3048</f>
-        <v>4.5720000000000001</v>
-      </c>
-      <c r="G51">
-        <f>20*0.3048</f>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="A51" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="I51" s="2">
-        <v>55</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="K51" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L51" s="2">
+      <c r="I51" s="37">
+        <v>50</v>
+      </c>
+      <c r="J51" s="37">
+        <f>I51</f>
+        <v>50</v>
+      </c>
+      <c r="K51" s="37">
+        <v>80</v>
+      </c>
+      <c r="L51" s="37">
+        <v>3</v>
+      </c>
+      <c r="M51" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="N51" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="37">
+        <v>80</v>
+      </c>
+      <c r="J52" s="37">
+        <f>I52</f>
+        <v>80</v>
+      </c>
+      <c r="K52" s="37">
+        <v>101</v>
+      </c>
+      <c r="L52" s="37">
         <v>5</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N51" s="2" t="s">
+      <c r="M52" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="N52" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="O51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52">
-        <f>15*0.3048</f>
-        <v>4.5720000000000001</v>
-      </c>
-      <c r="G52">
-        <f>20*0.3048</f>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="H52" t="s">
-        <v>180</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="O52" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53">
-        <f>20*0.3048</f>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="G53">
-        <f>25*0.3048</f>
-        <v>7.62</v>
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
       </c>
       <c r="H53" t="s">
         <v>180</v>
@@ -6270,20 +6289,20 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="0"/>
+        <f>I53</f>
         <v>0</v>
       </c>
       <c r="K53" s="2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="L53" s="2">
         <v>1</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>109</v>
+      <c r="M53" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="O53" t="s">
         <v>32</v>
@@ -6291,49 +6310,47 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54">
-        <f>20*0.3048</f>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="G54">
-        <f>25*0.3048</f>
-        <v>7.62</v>
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
       </c>
       <c r="H54" t="s">
         <v>180</v>
       </c>
       <c r="I54" s="2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f>I54</f>
+        <v>2</v>
       </c>
       <c r="K54" s="2">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="L54" s="2">
-        <v>5</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>111</v>
+        <v>3</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O54" t="s">
         <v>32</v>
@@ -6341,49 +6358,47 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55">
-        <f>20*0.3048</f>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="G55">
-        <f>25*0.3048</f>
-        <v>7.62</v>
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
       </c>
       <c r="H55" t="s">
         <v>180</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>32</v>
+      <c r="I55" s="2">
+        <v>5</v>
+      </c>
+      <c r="J55" s="2">
+        <f>I55</f>
+        <v>5</v>
+      </c>
+      <c r="K55" s="2">
+        <v>101</v>
+      </c>
+      <c r="L55" s="2">
+        <v>5</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O55" t="s">
         <v>32</v>
@@ -6391,49 +6406,46 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56">
-        <f>25*0.3048</f>
-        <v>7.62</v>
-      </c>
-      <c r="G56">
-        <f>50*0.3048</f>
-        <v>15.24</v>
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
       </c>
       <c r="H56" t="s">
         <v>180</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="K56" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
         <v>1</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>114</v>
+      <c r="M56" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="O56" t="s">
         <v>32</v>
@@ -6441,49 +6453,46 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57">
-        <f>25*0.3048</f>
-        <v>7.62</v>
-      </c>
-      <c r="G57">
-        <f>50*0.3048</f>
-        <v>15.24</v>
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
       </c>
       <c r="H57" t="s">
         <v>180</v>
       </c>
       <c r="I57" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2">
-        <v>100000</v>
+        <v>4</v>
       </c>
       <c r="L57" s="2">
-        <v>5</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>115</v>
+        <v>3</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O57" t="s">
         <v>32</v>
@@ -6491,49 +6500,46 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58">
-        <f>25*0.3048</f>
-        <v>7.62</v>
-      </c>
-      <c r="G58">
-        <f>50*0.3048</f>
-        <v>15.24</v>
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
       </c>
       <c r="H58" t="s">
         <v>180</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>32</v>
+      <c r="I58" s="2">
+        <v>4</v>
+      </c>
+      <c r="J58" s="2">
+        <v>4</v>
+      </c>
+      <c r="K58" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L58" s="2">
+        <v>5</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O58" t="s">
         <v>32</v>
@@ -6541,27 +6547,25 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59">
-        <f>50*0.3048</f>
-        <v>15.24</v>
-      </c>
-      <c r="G59">
-        <f>75*0.3048</f>
-        <v>22.86</v>
+        <v>32</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
       </c>
       <c r="H59" t="s">
         <v>180</v>
@@ -6570,20 +6574,20 @@
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="0"/>
+        <f>I59</f>
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>23</v>
-      </c>
-      <c r="L59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="34">
         <v>1</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>117</v>
+      <c r="M59" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="O59" t="s">
         <v>32</v>
@@ -6591,49 +6595,47 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60">
-        <f>50*0.3048</f>
-        <v>15.24</v>
-      </c>
-      <c r="G60">
-        <f>75*0.3048</f>
-        <v>22.86</v>
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
       </c>
       <c r="H60" t="s">
         <v>180</v>
       </c>
       <c r="I60" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>I60</f>
+        <v>2</v>
       </c>
       <c r="K60" s="2">
-        <v>100000</v>
-      </c>
-      <c r="L60" s="2">
         <v>5</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>118</v>
+      <c r="L60" s="34">
+        <v>3</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O60" t="s">
         <v>32</v>
@@ -6641,49 +6643,47 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61">
-        <f>50*0.3048</f>
-        <v>15.24</v>
-      </c>
-      <c r="G61">
-        <f>75*0.3048</f>
-        <v>22.86</v>
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
       </c>
       <c r="H61" t="s">
         <v>180</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>32</v>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
+      <c r="J61" s="2">
+        <f>I61</f>
+        <v>5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>101</v>
+      </c>
+      <c r="L61" s="34">
+        <v>5</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O61" t="s">
         <v>32</v>
@@ -6691,26 +6691,25 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62">
-        <f>75*0.3048</f>
-        <v>22.86</v>
-      </c>
-      <c r="G62">
-        <v>100000</v>
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
       </c>
       <c r="H62" t="s">
         <v>180</v>
@@ -6719,20 +6718,20 @@
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="0"/>
+        <f>I62</f>
         <v>0</v>
       </c>
       <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="34">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="L62" s="2">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="O62" t="s">
         <v>32</v>
@@ -6740,48 +6739,47 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
-      </c>
-      <c r="F63">
-        <f>75*0.3048</f>
-        <v>22.86</v>
-      </c>
-      <c r="G63">
-        <v>100000</v>
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
       </c>
       <c r="H63" t="s">
         <v>180</v>
       </c>
       <c r="I63" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>I63</f>
+        <v>1</v>
       </c>
       <c r="K63" s="2">
-        <v>100000</v>
-      </c>
-      <c r="L63" s="2">
-        <v>5</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
+      </c>
+      <c r="L63" s="34">
+        <v>3</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O63" t="s">
         <v>32</v>
@@ -6789,903 +6787,931 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64">
-        <f>75*0.3048</f>
-        <v>22.86</v>
-      </c>
-      <c r="G64">
-        <v>100000</v>
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
       </c>
       <c r="H64" t="s">
         <v>180</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>32</v>
+      <c r="I64" s="2">
+        <v>50</v>
+      </c>
+      <c r="J64" s="2">
+        <f>I64</f>
+        <v>50</v>
+      </c>
+      <c r="K64" s="2">
+        <v>101</v>
+      </c>
+      <c r="L64" s="34">
+        <v>5</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O64" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36" t="s">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s">
         <v>180</v>
       </c>
-      <c r="I65" s="37">
+      <c r="I65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="37">
-        <f t="shared" si="0"/>
+      <c r="J65" s="2">
+        <f>I65</f>
         <v>0</v>
       </c>
-      <c r="K65" s="37">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="L65" s="37">
+      <c r="K65" s="2">
+        <v>12</v>
+      </c>
+      <c r="L65" s="34">
+        <v>5</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s">
+        <v>180</v>
+      </c>
+      <c r="I66" s="2">
+        <v>12</v>
+      </c>
+      <c r="J66" s="2">
+        <f>I66</f>
+        <v>12</v>
+      </c>
+      <c r="K66" s="2">
+        <v>20</v>
+      </c>
+      <c r="L66" s="34">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s">
+        <v>180</v>
+      </c>
+      <c r="I67" s="2">
+        <v>20</v>
+      </c>
+      <c r="J67" s="2">
+        <f>I67</f>
+        <v>20</v>
+      </c>
+      <c r="K67" s="2">
+        <v>101</v>
+      </c>
+      <c r="L67" s="34">
         <v>1</v>
       </c>
-      <c r="M65" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="N65" s="37" t="s">
+      <c r="M67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O65" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36" t="s">
+      <c r="O67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="37">
-        <v>50</v>
-      </c>
-      <c r="J66" s="37">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="K66" s="37">
+      <c r="I68" s="42">
+        <v>0</v>
+      </c>
+      <c r="J68" s="42">
+        <f>I68</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="42">
+        <v>10</v>
+      </c>
+      <c r="L68" s="43">
+        <v>1</v>
+      </c>
+      <c r="M68" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="N68" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I69" s="42">
+        <v>10</v>
+      </c>
+      <c r="J69" s="42">
+        <f>I69</f>
+        <v>10</v>
+      </c>
+      <c r="K69" s="42">
+        <v>20</v>
+      </c>
+      <c r="L69" s="43">
+        <v>3</v>
+      </c>
+      <c r="M69" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="L66" s="37">
+      <c r="N69" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I70" s="42">
+        <v>20</v>
+      </c>
+      <c r="J70" s="42">
+        <f>I70</f>
+        <v>20</v>
+      </c>
+      <c r="K70" s="42">
+        <v>100000</v>
+      </c>
+      <c r="L70" s="43">
+        <v>5</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="N70" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I71" s="42">
+        <v>0</v>
+      </c>
+      <c r="J71" s="42">
+        <f>I71</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="42">
+        <v>15</v>
+      </c>
+      <c r="L71" s="43">
+        <v>5</v>
+      </c>
+      <c r="M71" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="N71" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I72" s="42">
+        <v>15</v>
+      </c>
+      <c r="J72" s="42">
+        <f>I72</f>
+        <v>15</v>
+      </c>
+      <c r="K72" s="42">
+        <v>30</v>
+      </c>
+      <c r="L72" s="43">
         <v>3</v>
       </c>
-      <c r="M66" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="N66" s="37" t="s">
+      <c r="M72" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="N72" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O66" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36" t="s">
+      <c r="O72" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="I67" s="37">
-        <v>80</v>
-      </c>
-      <c r="J67" s="37">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="K67" s="37">
+      <c r="I73" s="42">
+        <v>30</v>
+      </c>
+      <c r="J73" s="42">
+        <f>I73</f>
+        <v>30</v>
+      </c>
+      <c r="K73" s="42">
         <v>101</v>
       </c>
-      <c r="L67" s="37">
+      <c r="L73" s="43">
+        <v>1</v>
+      </c>
+      <c r="M73" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="N73" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I74" s="42">
+        <v>0</v>
+      </c>
+      <c r="J74" s="42">
+        <f>I74</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="42">
+        <v>12</v>
+      </c>
+      <c r="L74" s="42">
         <v>5</v>
       </c>
-      <c r="M67" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="N67" s="37" t="s">
+      <c r="M74" s="42" t="str">
+        <f>"&lt;" &amp;I75 &amp;" deg"</f>
+        <v>&lt;12 deg</v>
+      </c>
+      <c r="N74" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" t="s">
-        <v>162</v>
-      </c>
-      <c r="E68" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="O74" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I75" s="42">
+        <v>12</v>
+      </c>
+      <c r="J75" s="42">
+        <f>I75</f>
+        <v>12</v>
+      </c>
+      <c r="K75" s="42">
+        <v>14</v>
+      </c>
+      <c r="L75" s="42">
+        <v>3</v>
+      </c>
+      <c r="M75" s="42" t="str">
+        <f>I75&amp;"-"&amp;I76&amp;" deg"</f>
+        <v>12-14 deg</v>
+      </c>
+      <c r="N75" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I76" s="42">
+        <v>14</v>
+      </c>
+      <c r="J76" s="42">
+        <f>I76</f>
+        <v>14</v>
+      </c>
+      <c r="K76" s="42">
+        <v>1000</v>
+      </c>
+      <c r="L76" s="42">
+        <v>1</v>
+      </c>
+      <c r="M76" s="42" t="str">
+        <f>"&gt;" &amp;I76 &amp;" deg"</f>
+        <v>&gt;14 deg</v>
+      </c>
+      <c r="N76" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O76" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I77" s="42">
         <v>0</v>
       </c>
-      <c r="J68" s="2">
-        <f t="shared" si="0"/>
+      <c r="J77" s="42">
+        <f>I77</f>
         <v>0</v>
       </c>
-      <c r="K68" s="2">
-        <v>2</v>
-      </c>
-      <c r="L68" s="2">
+      <c r="K77" s="42">
+        <v>10</v>
+      </c>
+      <c r="L77" s="42">
+        <v>5</v>
+      </c>
+      <c r="M77" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I78" s="42">
+        <v>10</v>
+      </c>
+      <c r="J78" s="42">
+        <f>I78</f>
+        <v>10</v>
+      </c>
+      <c r="K78" s="42">
+        <v>14</v>
+      </c>
+      <c r="L78" s="42">
+        <v>3</v>
+      </c>
+      <c r="M78" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N78" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I79" s="42">
+        <v>14</v>
+      </c>
+      <c r="J79" s="42">
+        <f>I79</f>
+        <v>14</v>
+      </c>
+      <c r="K79" s="42">
+        <v>1000</v>
+      </c>
+      <c r="L79" s="42">
         <v>1</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N68" s="2" t="s">
+      <c r="M79" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N79" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="O79" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="I69" s="2">
-        <v>2</v>
-      </c>
-      <c r="J69" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K69" s="2">
+      <c r="I80" s="42">
+        <v>0</v>
+      </c>
+      <c r="J80" s="42">
+        <f>I80</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="42">
+        <v>16</v>
+      </c>
+      <c r="L80" s="42">
         <v>5</v>
       </c>
-      <c r="L69" s="2">
+      <c r="M80" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="N80" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="I81" s="42">
+        <v>16</v>
+      </c>
+      <c r="J81" s="42">
+        <f>I81</f>
+        <v>16</v>
+      </c>
+      <c r="K81" s="42">
+        <v>22</v>
+      </c>
+      <c r="L81" s="42">
         <v>3</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N69" s="2" t="s">
+      <c r="M81" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="N81" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="O81" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I82" s="42">
+        <v>22</v>
+      </c>
+      <c r="J82" s="42">
+        <f>I82</f>
+        <v>22</v>
+      </c>
+      <c r="K82" s="42">
+        <v>1000</v>
+      </c>
+      <c r="L82" s="42">
+        <v>1</v>
+      </c>
+      <c r="M82" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="N82" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O82" s="45" t="s">
         <v>5</v>
-      </c>
-      <c r="J70" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K70" s="2">
-        <v>101</v>
-      </c>
-      <c r="L70" s="2">
-        <v>5</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" t="s">
-        <v>158</v>
-      </c>
-      <c r="E71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s">
-        <v>180</v>
-      </c>
-      <c r="I71" s="2">
-        <v>-5</v>
-      </c>
-      <c r="J71" s="2">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E72" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I72" s="2">
-        <v>1</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>4</v>
-      </c>
-      <c r="L72" s="2">
-        <v>3</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s">
-        <v>180</v>
-      </c>
-      <c r="I73" s="2">
-        <v>4</v>
-      </c>
-      <c r="J73" s="2">
-        <v>4</v>
-      </c>
-      <c r="K73" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L73" s="2">
-        <v>5</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" t="s">
-        <v>180</v>
-      </c>
-      <c r="I74" s="2">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" ref="J74:J97" si="1">I74</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>2</v>
-      </c>
-      <c r="L74" s="34">
-        <v>1</v>
-      </c>
-      <c r="M74" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" t="s">
-        <v>180</v>
-      </c>
-      <c r="I75" s="2">
-        <v>2</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K75" s="2">
-        <v>5</v>
-      </c>
-      <c r="L75" s="34">
-        <v>3</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O75" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" t="s">
-        <v>180</v>
-      </c>
-      <c r="I76" s="2">
-        <v>5</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K76" s="2">
-        <v>101</v>
-      </c>
-      <c r="L76" s="34">
-        <v>5</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O76" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" t="s">
-        <v>180</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-      <c r="L77" s="34">
-        <v>1</v>
-      </c>
-      <c r="M77" s="3">
-        <v>0</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" t="s">
-        <v>148</v>
-      </c>
-      <c r="D78" t="s">
-        <v>149</v>
-      </c>
-      <c r="E78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" t="s">
-        <v>180</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K78" s="2">
-        <v>50</v>
-      </c>
-      <c r="L78" s="34">
-        <v>3</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O78" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E79" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" t="s">
-        <v>180</v>
-      </c>
-      <c r="I79" s="2">
-        <v>50</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K79" s="2">
-        <v>101</v>
-      </c>
-      <c r="L79" s="34">
-        <v>5</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O79" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" t="s">
-        <v>180</v>
-      </c>
-      <c r="I80" s="2">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>12</v>
-      </c>
-      <c r="L80" s="34">
-        <v>5</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" t="s">
-        <v>180</v>
-      </c>
-      <c r="I81" s="2">
-        <v>12</v>
-      </c>
-      <c r="J81" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K81" s="2">
-        <v>20</v>
-      </c>
-      <c r="L81" s="34">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" t="s">
-        <v>180</v>
-      </c>
-      <c r="I82" s="2">
-        <v>20</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="K82" s="2">
-        <v>101</v>
-      </c>
-      <c r="L82" s="34">
-        <v>1</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O82" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="41" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="B83" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C83" s="42" t="s">
-        <v>146</v>
+      <c r="C83" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="E83" s="41" t="s">
         <v>32</v>
@@ -7700,40 +7726,39 @@
         <v>180</v>
       </c>
       <c r="I83" s="42">
-        <v>0</v>
-      </c>
-      <c r="J83" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="J83" s="41">
+        <v>99</v>
       </c>
       <c r="K83" s="42">
-        <v>10</v>
-      </c>
-      <c r="L83" s="43">
+        <v>100</v>
+      </c>
+      <c r="L83" s="46">
         <v>1</v>
       </c>
       <c r="M83" s="42" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="N83" s="42" t="s">
         <v>18</v>
       </c>
       <c r="O83" s="41" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="B84" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>146</v>
+      <c r="C84" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="E84" s="41" t="s">
         <v>32</v>
@@ -7748,40 +7773,39 @@
         <v>180</v>
       </c>
       <c r="I84" s="42">
-        <v>10</v>
-      </c>
-      <c r="J84" s="42">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J84">
+        <v>50</v>
       </c>
       <c r="K84" s="42">
-        <v>20</v>
-      </c>
-      <c r="L84" s="43">
+        <v>99</v>
+      </c>
+      <c r="L84" s="35">
         <v>3</v>
       </c>
       <c r="M84" s="42" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="N84" s="42" t="s">
         <v>22</v>
       </c>
       <c r="O84" s="41" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="B85" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>146</v>
+      <c r="C85" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="E85" s="41" t="s">
         <v>32</v>
@@ -7796,71 +7820,66 @@
         <v>180</v>
       </c>
       <c r="I85" s="42">
-        <v>20</v>
-      </c>
-      <c r="J85" s="42">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
       </c>
       <c r="K85" s="42">
-        <v>100000</v>
-      </c>
-      <c r="L85" s="43">
+        <v>50</v>
+      </c>
+      <c r="L85" s="35">
         <v>5</v>
       </c>
       <c r="M85" s="42" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="N85" s="42" t="s">
         <v>20</v>
       </c>
       <c r="O85" s="41" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E86" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I86" s="42">
-        <v>0</v>
-      </c>
-      <c r="J86" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="42">
-        <v>15</v>
-      </c>
-      <c r="L86" s="43">
-        <v>5</v>
-      </c>
-      <c r="M86" s="44" t="s">
-        <v>87</v>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s">
+        <v>179</v>
+      </c>
+      <c r="I86" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" s="42">
+        <v>1</v>
+      </c>
+      <c r="M86" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="N86" s="42" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O86" s="41" t="s">
         <v>32</v>
@@ -7868,47 +7887,43 @@
     </row>
     <row r="87" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E87" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F87" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H87" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I87" s="42">
-        <v>15</v>
-      </c>
-      <c r="J87" s="42">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K87" s="42">
-        <v>30</v>
-      </c>
-      <c r="L87" s="43">
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" t="s">
+        <v>179</v>
+      </c>
+      <c r="I87" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K87" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" s="42">
         <v>3</v>
       </c>
-      <c r="M87" s="44" t="s">
-        <v>90</v>
+      <c r="M87" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="N87" s="42" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O87" s="41" t="s">
         <v>32</v>
@@ -7916,641 +7931,817 @@
     </row>
     <row r="88" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E88" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H88" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I88" s="42">
-        <v>30</v>
-      </c>
-      <c r="J88" s="42">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="K88" s="42">
-        <v>101</v>
-      </c>
-      <c r="L88" s="43">
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" t="s">
+        <v>179</v>
+      </c>
+      <c r="I88" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="42">
+        <v>5</v>
+      </c>
+      <c r="M88" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="N88" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K89" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" t="s">
+        <v>179</v>
+      </c>
+      <c r="I90" s="3">
         <v>1</v>
       </c>
-      <c r="M88" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="N88" s="42" t="s">
+      <c r="J90" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L90" s="2">
+        <v>5</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s">
+        <v>179</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2</v>
+      </c>
+      <c r="J91" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L91" s="2">
+        <v>3</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" t="s">
+        <v>179</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O88" s="41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E89" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I89" s="42">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="42">
-        <v>12</v>
-      </c>
-      <c r="L89" s="42">
+      <c r="O92" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" t="s">
+        <v>179</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J93" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" t="s">
+        <v>171</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" t="s">
+        <v>179</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" t="s">
+        <v>179</v>
+      </c>
+      <c r="I95" s="3">
         <v>5</v>
       </c>
-      <c r="M89" s="42" t="str">
-        <f>"&lt;" &amp;I90 &amp;" deg"</f>
-        <v>&lt;12 deg</v>
-      </c>
-      <c r="N89" s="42" t="s">
+      <c r="J95" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" t="s">
+        <v>179</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O89" s="45" t="s">
+      <c r="J96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L96" s="34">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I90" s="42">
-        <v>12</v>
-      </c>
-      <c r="J90" s="42">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K90" s="42">
-        <v>14</v>
-      </c>
-      <c r="L90" s="42">
+      <c r="M96" t="s">
+        <v>32</v>
+      </c>
+      <c r="N96" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" t="s">
+        <v>179</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L97" s="34">
         <v>3</v>
       </c>
-      <c r="M90" s="42" t="str">
-        <f>I90&amp;"-"&amp;I91&amp;" deg"</f>
-        <v>12-14 deg</v>
-      </c>
-      <c r="N90" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="O90" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E91" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I91" s="42">
-        <v>14</v>
-      </c>
-      <c r="J91" s="42">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="K91" s="42">
-        <v>1000</v>
-      </c>
-      <c r="L91" s="42">
+      <c r="M97" t="s">
+        <v>32</v>
+      </c>
+      <c r="N97" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" t="s">
+        <v>179</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L98" s="34">
         <v>1</v>
       </c>
-      <c r="M91" s="42" t="str">
-        <f>"&gt;" &amp;I91 &amp;" deg"</f>
-        <v>&gt;14 deg</v>
-      </c>
-      <c r="N91" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O91" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H92" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I92" s="42">
-        <v>0</v>
-      </c>
-      <c r="J92" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="42">
-        <v>10</v>
-      </c>
-      <c r="L92" s="42">
-        <v>5</v>
-      </c>
-      <c r="M92" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="N92" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="O92" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E93" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H93" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I93" s="42">
-        <v>10</v>
-      </c>
-      <c r="J93" s="42">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K93" s="42">
-        <v>14</v>
-      </c>
-      <c r="L93" s="42">
-        <v>3</v>
-      </c>
-      <c r="M93" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="N93" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="O93" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C94" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H94" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I94" s="42">
-        <v>14</v>
-      </c>
-      <c r="J94" s="42">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="K94" s="42">
-        <v>1000</v>
-      </c>
-      <c r="L94" s="42">
-        <v>1</v>
-      </c>
-      <c r="M94" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="N94" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O94" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E95" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G95" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I95" s="42">
-        <v>0</v>
-      </c>
-      <c r="J95" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="42">
-        <v>16</v>
-      </c>
-      <c r="L95" s="42">
-        <v>5</v>
-      </c>
-      <c r="M95" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="N95" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="O95" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E96" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F96" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G96" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I96" s="42">
-        <v>16</v>
-      </c>
-      <c r="J96" s="42">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K96" s="42">
-        <v>22</v>
-      </c>
-      <c r="L96" s="42">
-        <v>3</v>
-      </c>
-      <c r="M96" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="N96" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="O96" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D97" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F97" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H97" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I97" s="42">
-        <v>22</v>
-      </c>
-      <c r="J97" s="42">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="K97" s="42">
-        <v>1000</v>
-      </c>
-      <c r="L97" s="42">
-        <v>1</v>
-      </c>
-      <c r="M97" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="N97" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O97" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E98" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I98" s="42">
-        <v>99</v>
-      </c>
-      <c r="J98" s="41">
-        <v>99</v>
-      </c>
-      <c r="K98" s="42">
-        <v>100</v>
-      </c>
-      <c r="L98" s="46">
-        <v>1</v>
-      </c>
-      <c r="M98" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="N98" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O98" s="41" t="s">
-        <v>197</v>
+      <c r="M98" t="s">
+        <v>32</v>
+      </c>
+      <c r="N98" t="s">
+        <v>32</v>
+      </c>
+      <c r="O98" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D99" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E99" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F99" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H99" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I99" s="42">
-        <v>50</v>
-      </c>
-      <c r="J99">
-        <v>50</v>
-      </c>
-      <c r="K99" s="42">
-        <v>99</v>
-      </c>
-      <c r="L99" s="35">
-        <v>3</v>
-      </c>
-      <c r="M99" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="N99" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="O99" s="41" t="s">
-        <v>197</v>
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" t="s">
+        <v>179</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L99" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M99" t="s">
+        <v>32</v>
+      </c>
+      <c r="N99" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D100" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E100" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F100" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I100" s="42">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" s="42">
-        <v>50</v>
+      <c r="A100" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" t="s">
+        <v>175</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s">
+        <v>179</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J100" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="L100" s="35">
         <v>5</v>
       </c>
-      <c r="M100" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="N100" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="O100" s="41" t="s">
-        <v>197</v>
+      <c r="M100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" t="s">
+        <v>179</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L101" s="35">
+        <v>1</v>
+      </c>
+      <c r="M101" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" t="s">
+        <v>179</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L102" s="35">
+        <v>3</v>
+      </c>
+      <c r="M102" t="s">
+        <v>32</v>
+      </c>
+      <c r="N102" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" t="s">
+        <v>179</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L103" s="35">
+        <v>5</v>
+      </c>
+      <c r="M103" t="s">
+        <v>32</v>
+      </c>
+      <c r="N103" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>198</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" t="s">
+        <v>179</v>
+      </c>
+      <c r="I104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O100" xr:uid="{964DF2B0-6B32-465A-9085-889E032C36AD}"/>
+  <autoFilter ref="A1:O100" xr:uid="{964DF2B0-6B32-465A-9085-889E032C36AD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O100">
+      <sortCondition descending="1" ref="H1:H100"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O89" r:id="rId1" xr:uid="{3DD1971B-CBAE-41F4-A49E-E6B715DE820C}"/>
-    <hyperlink ref="O90" r:id="rId2" xr:uid="{B70648BD-A7AB-413B-9D28-5E7E04E8D8F5}"/>
-    <hyperlink ref="O91" r:id="rId3" xr:uid="{94CE93F7-EA99-43AE-A3BC-3639026B68DA}"/>
-    <hyperlink ref="O92" r:id="rId4" xr:uid="{28EEF1C5-2201-4CAC-8065-0D2F347B7124}"/>
-    <hyperlink ref="O93" r:id="rId5" xr:uid="{39107696-972C-416E-8026-6F8130E1DF9A}"/>
-    <hyperlink ref="O94" r:id="rId6" xr:uid="{1EB36A61-FD5D-470B-982C-98CAF090C7B4}"/>
-    <hyperlink ref="O95" r:id="rId7" xr:uid="{912A55AA-D739-4688-B512-D1F7F7D2464D}"/>
-    <hyperlink ref="O96" r:id="rId8" xr:uid="{76032E0E-01EE-48AC-BF61-82F637F673AF}"/>
-    <hyperlink ref="O97" r:id="rId9" xr:uid="{CECD69F7-422C-4292-8867-526E6FE367A4}"/>
+    <hyperlink ref="O74" r:id="rId1" xr:uid="{3DD1971B-CBAE-41F4-A49E-E6B715DE820C}"/>
+    <hyperlink ref="O75" r:id="rId2" xr:uid="{B70648BD-A7AB-413B-9D28-5E7E04E8D8F5}"/>
+    <hyperlink ref="O76" r:id="rId3" xr:uid="{94CE93F7-EA99-43AE-A3BC-3639026B68DA}"/>
+    <hyperlink ref="O77" r:id="rId4" xr:uid="{28EEF1C5-2201-4CAC-8065-0D2F347B7124}"/>
+    <hyperlink ref="O78" r:id="rId5" xr:uid="{39107696-972C-416E-8026-6F8130E1DF9A}"/>
+    <hyperlink ref="O79" r:id="rId6" xr:uid="{1EB36A61-FD5D-470B-982C-98CAF090C7B4}"/>
+    <hyperlink ref="O80" r:id="rId7" xr:uid="{912A55AA-D739-4688-B512-D1F7F7D2464D}"/>
+    <hyperlink ref="O81" r:id="rId8" xr:uid="{76032E0E-01EE-48AC-BF61-82F637F673AF}"/>
+    <hyperlink ref="O82" r:id="rId9" xr:uid="{CECD69F7-422C-4292-8867-526E6FE367A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
